--- a/7rMartSuperMarket/src/main/resources/testdata.xlsx
+++ b/7rMartSuperMarket/src/main/resources/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shifana s\eclipse-workspace\7rMartSuperMarket\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shifana s\git\selenium-final-project\7rMartSuperMarket\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DF3605-595C-4EFC-AE43-CAD3EC8552B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9446FA7F-575C-469E-8FA2-64C4233B359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +119,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,9 +148,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,10 +488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DB351C-5260-47C2-8CD0-A6078390947B}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,7 +500,7 @@
     <col min="2" max="2" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -504,7 +511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -515,8 +522,12 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -618,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF8C456-CE66-4768-B049-CBECF5950B24}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/7rMartSuperMarket/src/main/resources/testdata.xlsx
+++ b/7rMartSuperMarket/src/main/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shifana s\git\selenium-final-project\7rMartSuperMarket\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9446FA7F-575C-469E-8FA2-64C4233B359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7264D0-248B-47F5-83D3-3762A050B297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DB351C-5260-47C2-8CD0-A6078390947B}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9E662D-2942-49CF-8ECC-77BDED084711}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,7 +630,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
